--- a/src/test/test-Data/Data for Users.xlsx
+++ b/src/test/test-Data/Data for Users.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIIS\IdeaProjects\Gyansetu_Admin_TestCases\src\test\test-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A66507-88CF-44E4-B2E8-AF2FCAD7FABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11327D7-CF16-4900-9CA3-733F0DD1F600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="20316" windowHeight="9792" tabRatio="479" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="479" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="5" r:id="rId1"/>
     <sheet name="School" sheetId="8" r:id="rId2"/>
-    <sheet name="Teacher for School" sheetId="9" r:id="rId3"/>
-    <sheet name="Subject for Class" sheetId="6" r:id="rId4"/>
+    <sheet name="Subject for Class" sheetId="6" r:id="rId3"/>
+    <sheet name="Teacher for School" sheetId="9" r:id="rId4"/>
     <sheet name="University" sheetId="1" r:id="rId5"/>
     <sheet name="InstituteCollage" sheetId="2" r:id="rId6"/>
     <sheet name="Course" sheetId="3" r:id="rId7"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="202">
   <si>
     <t>No.</t>
   </si>
@@ -512,24 +512,12 @@
     <t>College Name</t>
   </si>
   <si>
-    <t>Rifha</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
-    <t>rifhar02@yopmail.com</t>
-  </si>
-  <si>
-    <t>Sanuja</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>sanujac02@yopmail.com</t>
-  </si>
-  <si>
     <t>Semester 2</t>
   </si>
   <si>
@@ -626,7 +614,40 @@
     <t>Marine Engineering</t>
   </si>
   <si>
-    <t>Jyothi Nilayam HSS</t>
+    <t>MotherTeresaHSS</t>
+  </si>
+  <si>
+    <t>motherteresaqq@yopmail.com</t>
+  </si>
+  <si>
+    <t>https://www.motherteresaHSS.com</t>
+  </si>
+  <si>
+    <t>Marthoma Public School</t>
+  </si>
+  <si>
+    <t>CEAL</t>
+  </si>
+  <si>
+    <t>Attingal</t>
+  </si>
+  <si>
+    <t>ceattingal223@yopmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cealm.com</t>
+  </si>
+  <si>
+    <t>kinnamma02@yopmail.com</t>
+  </si>
+  <si>
+    <t>vallapadam02@yopmail.com</t>
+  </si>
+  <si>
+    <t>Kinnamma B</t>
+  </si>
+  <si>
+    <t>Vallap N</t>
   </si>
 </sst>
 </file>
@@ -1115,19 +1136,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5897C03A-75B5-4B60-BA38-15EFEA6E6ACA}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" customWidth="1"/>
     <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
@@ -1169,8 +1191,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" ht="15.6">
+      <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B2" t="s">
@@ -1180,16 +1202,16 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
         <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="G2">
-        <v>9876544465</v>
+        <v>9876544411</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
@@ -1201,7 +1223,7 @@
         <v>986766</v>
       </c>
       <c r="K2" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1215,28 +1237,28 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="G3">
-        <v>9837373723</v>
+        <v>9876544465</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="J3">
-        <v>948881</v>
+        <v>986766</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1250,28 +1272,28 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G4">
-        <v>6574838876</v>
+        <v>9837373723</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J4">
-        <v>567477</v>
+        <v>948881</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1285,28 +1307,28 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>179</v>
+        <v>32</v>
       </c>
       <c r="G5">
-        <v>8769997661</v>
+        <v>6574838876</v>
       </c>
       <c r="H5" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="J5">
-        <v>456666</v>
+        <v>567477</v>
       </c>
       <c r="K5" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1320,27 +1342,62 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6">
+        <v>8769997661</v>
+      </c>
+      <c r="H6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6">
+        <v>456666</v>
+      </c>
+      <c r="K6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>133</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>86</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>134</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>9876544465</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H7" t="s">
         <v>26</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I7" t="s">
         <v>87</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>986766</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K7" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1351,11 +1408,258 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FF067D-72D7-435D-8B48-325C086B03B7}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6">
+      <c r="A1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B51ED7-841B-4518-8D2E-DA7EB438D507}">
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1448,7 +1752,7 @@
     </row>
     <row r="2" spans="1:21" s="7" customFormat="1" ht="15.6">
       <c r="A2" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>130</v>
@@ -1466,7 +1770,7 @@
         <v>1996</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H2" s="8">
         <v>7654566674</v>
@@ -1480,8 +1784,8 @@
       <c r="K2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="15" t="s">
-        <v>88</v>
+      <c r="L2" t="s">
+        <v>190</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>105</v>
@@ -1513,10 +1817,10 @@
     </row>
     <row r="3" spans="1:21" s="7" customFormat="1" ht="15.6">
       <c r="A3" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>114</v>
@@ -1531,7 +1835,7 @@
         <v>1996</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H3" s="8">
         <v>7654566964</v>
@@ -1545,8 +1849,8 @@
       <c r="K3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="15" t="s">
-        <v>88</v>
+      <c r="L3" t="s">
+        <v>190</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>105</v>
@@ -1578,10 +1882,10 @@
     </row>
     <row r="4" spans="1:21" s="7" customFormat="1" ht="15.6">
       <c r="A4" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>114</v>
@@ -1596,7 +1900,7 @@
         <v>1996</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H4" s="8">
         <v>7654566062</v>
@@ -1610,8 +1914,8 @@
       <c r="K4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="15" t="s">
-        <v>88</v>
+      <c r="L4" t="s">
+        <v>190</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>105</v>
@@ -1641,59 +1945,101 @@
         <v>654333</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="7" customFormat="1" ht="15.6">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="11"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-    </row>
-    <row r="6" spans="1:21" ht="25.8" customHeight="1">
+    <row r="5" spans="1:21" ht="25.8" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="8">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1996</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" s="8">
+        <v>7654566668</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5" s="8">
+        <v>4</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="N5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" s="8">
+        <v>654333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="8" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>106</v>
       </c>
       <c r="D6" s="8">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F6" s="8">
-        <v>1996</v>
+        <v>1955</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H6" s="8">
-        <v>7654566668</v>
+        <v>9867543329</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>104</v>
       </c>
       <c r="J6" s="8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>19</v>
@@ -1731,34 +2077,34 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>106</v>
       </c>
       <c r="D7" s="8">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F7" s="8">
-        <v>1955</v>
+        <v>1966</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H7" s="8">
-        <v>9867543329</v>
+        <v>9087234572</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>104</v>
       </c>
       <c r="J7" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>19</v>
@@ -1796,34 +2142,34 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D8" s="8">
-        <v>5</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>111</v>
+        <v>12</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>115</v>
       </c>
       <c r="F8" s="8">
-        <v>1966</v>
+        <v>1975</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H8" s="8">
-        <v>9087234572</v>
+        <v>9876314570</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="J8" s="8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>19</v>
@@ -1832,7 +2178,7 @@
         <v>133</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="N8" t="s">
         <v>35</v>
@@ -1841,7 +2187,7 @@
         <v>36</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="8" t="s">
         <v>16</v>
@@ -1850,45 +2196,45 @@
         <v>17</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="U8" s="8">
-        <v>654333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+        <v>897121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="25.8" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D9" s="8">
-        <v>12</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>115</v>
+        <v>11</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="F9" s="8">
-        <v>1975</v>
+        <v>1996</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H9" s="8">
-        <v>9876314570</v>
+        <v>7654566668</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="J9" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>19</v>
@@ -1897,7 +2243,7 @@
         <v>133</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N9" t="s">
         <v>35</v>
@@ -1906,7 +2252,7 @@
         <v>36</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="Q9" s="8" t="s">
         <v>16</v>
@@ -1915,79 +2261,37 @@
         <v>17</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="U9" s="8">
-        <v>897121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="25.8" customHeight="1">
-      <c r="A10" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="8">
-        <v>11</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" s="8">
-        <v>1996</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H10" s="8">
-        <v>7654566668</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="J10" s="8">
-        <v>4</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="N10" t="s">
-        <v>35</v>
-      </c>
-      <c r="O10" t="s">
-        <v>36</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="U10" s="8">
         <v>654333</v>
       </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="8"/>
@@ -2058,277 +2362,7 @@
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
     </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FF067D-72D7-435D-8B48-325C086B03B7}">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.6">
-      <c r="A1" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>194</v>
-      </c>
-      <c r="B7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>194</v>
-      </c>
-      <c r="B10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>194</v>
-      </c>
-      <c r="B11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2337,8 +2371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.109375" defaultRowHeight="14.4"/>
@@ -2414,8 +2448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6EE4EC0-E47A-495F-967C-F84FE2FCC145}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2426,7 +2460,7 @@
     <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -2583,21 +2617,43 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" ht="43.2">
       <c r="A5" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="B5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H5" s="9">
+        <v>9872677711</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="K5" s="9">
+        <v>876678</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="9"/>
@@ -2693,7 +2749,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2714,8 +2770,8 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>18</v>
+      <c r="A2" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
@@ -2725,8 +2781,8 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>18</v>
+      <c r="A3" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="B3" t="s">
         <v>61</v>
@@ -2736,8 +2792,8 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>18</v>
+      <c r="A4" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -2747,8 +2803,8 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>18</v>
+      <c r="A5" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
@@ -2759,10 +2815,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2770,26 +2826,26 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2801,8 +2857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD777FE3-DB45-4D8D-8832-898E4B70358C}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2829,7 +2885,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
@@ -2843,7 +2899,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
@@ -2857,7 +2913,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
@@ -2871,7 +2927,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
@@ -2885,7 +2941,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -2899,7 +2955,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
@@ -2913,7 +2969,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="B8" t="s">
         <v>60</v>
@@ -2927,7 +2983,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
@@ -2941,7 +2997,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -2955,7 +3011,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
@@ -2969,170 +3025,170 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="B12" t="s">
         <v>60</v>
       </c>
       <c r="C12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" t="s">
         <v>162</v>
-      </c>
-      <c r="D12" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="B13" t="s">
         <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D13" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="B14" t="s">
         <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D14" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="B15" t="s">
         <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D15" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s">
         <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s">
         <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D17" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s">
         <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D18" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s">
         <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D19" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s">
         <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D20" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="B21" t="s">
         <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D21" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s">
         <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D22" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="B23" t="s">
         <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D23" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3143,18 +3199,18 @@
         <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D24" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B25" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C25" t="s">
         <v>66</v>
@@ -3165,10 +3221,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B26" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C26" t="s">
         <v>66</v>
@@ -3179,10 +3235,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B27" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C27" t="s">
         <v>66</v>
@@ -3193,10 +3249,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B28" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C28" t="s">
         <v>66</v>
@@ -3207,10 +3263,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B29" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C29" t="s">
         <v>66</v>
@@ -3221,10 +3277,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C30" t="s">
         <v>66</v>
@@ -3235,10 +3291,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C31" t="s">
         <v>66</v>
@@ -3249,10 +3305,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B32" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C32" t="s">
         <v>66</v>
@@ -3263,10 +3319,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B33" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C33" t="s">
         <v>66</v>
@@ -3277,10 +3333,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B34" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C34" t="s">
         <v>66</v>
@@ -3291,58 +3347,58 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B35" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C35" t="s">
+        <v>158</v>
+      </c>
+      <c r="D35" t="s">
         <v>162</v>
-      </c>
-      <c r="D35" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B36" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C36" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D36" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B37" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C37" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D37" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B38" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D38" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3353,10 +3409,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58EB87B6-D2CD-4001-A67D-52A7C345C7ED}">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3373,8 +3429,8 @@
     <col min="13" max="13" width="10.5546875" style="2" customWidth="1"/>
     <col min="14" max="14" width="12.44140625" style="2" customWidth="1"/>
     <col min="15" max="15" width="11.77734375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="46.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="48.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
@@ -3451,10 +3507,10 @@
     </row>
     <row r="2" spans="1:23" ht="72">
       <c r="A2" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>106</v>
@@ -3469,7 +3525,7 @@
         <v>1996</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="H2" s="8">
         <v>7654566644</v>
@@ -3486,8 +3542,8 @@
       <c r="L2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="M2" s="11" t="s">
-        <v>18</v>
+      <c r="M2" t="s">
+        <v>194</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>60</v>
@@ -3522,10 +3578,10 @@
     </row>
     <row r="3" spans="1:23" ht="72">
       <c r="A3" s="8" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>114</v>
@@ -3540,7 +3596,7 @@
         <v>1991</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="H3" s="8">
         <v>7654566633</v>
@@ -3557,8 +3613,8 @@
       <c r="L3" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="M3" s="11" t="s">
-        <v>18</v>
+      <c r="M3" t="s">
+        <v>194</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>60</v>
@@ -3589,6 +3645,14 @@
       </c>
       <c r="W3" s="8">
         <v>654333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="P4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
